--- a/Mirwani_Infantas_Huansha/Fase 2/Evidencias Proyecto/14- Test Plan Ágil/Test plan agil.xlsx
+++ b/Mirwani_Infantas_Huansha/Fase 2/Evidencias Proyecto/14- Test Plan Ágil/Test plan agil.xlsx
@@ -1,13 +1,33 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29404"/>
   <workbookPr/>
+  <xr:revisionPtr revIDLastSave="1" documentId="11_946C5EB42D3AEEFA7219AC977D393F48528EF608" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{11A23F33-0852-469F-9BBB-D35A7EE64C4A}"/>
+  <bookViews>
+    <workbookView xWindow="0" yWindow="0" windowWidth="0" windowHeight="0" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+  </bookViews>
   <sheets>
-    <sheet state="visible" name="Plan general" sheetId="1" r:id="rId4"/>
-    <sheet state="visible" name="Casos de prueba" sheetId="2" r:id="rId5"/>
+    <sheet name="Plan general" sheetId="1" r:id="rId1"/>
+    <sheet name="Casos de prueba" sheetId="2" r:id="rId2"/>
   </sheets>
-  <definedNames/>
-  <calcPr/>
+  <calcPr calcId="191028"/>
+  <extLst>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+      <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -611,15 +631,16 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="2">
     <font>
-      <sz val="10.0"/>
+      <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
       <scheme val="minor"/>
@@ -630,7 +651,7 @@
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="lightGray"/>
+      <patternFill patternType="gray125"/>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -646,24 +667,37 @@
     </fill>
   </fills>
   <borders count="10">
-    <border/>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
       <right style="thin">
         <color rgb="FF000000"/>
       </right>
+      <top/>
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
+      <diagonal/>
     </border>
     <border>
       <left style="thin">
         <color rgb="FF000000"/>
       </left>
+      <right/>
+      <top/>
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
+      <diagonal/>
     </border>
     <border>
+      <left/>
       <right style="thin">
         <color rgb="FF000000"/>
       </right>
@@ -673,33 +707,42 @@
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
+      <diagonal/>
     </border>
     <border>
       <left style="thin">
         <color rgb="FF000000"/>
       </left>
+      <right/>
       <top style="thin">
         <color rgb="FF000000"/>
       </top>
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
+      <diagonal/>
     </border>
     <border>
+      <left/>
       <right style="thin">
         <color rgb="FF000000"/>
       </right>
       <top style="thin">
         <color rgb="FF000000"/>
       </top>
+      <bottom/>
+      <diagonal/>
     </border>
     <border>
       <left style="thin">
         <color rgb="FF000000"/>
       </left>
+      <right/>
       <top style="thin">
         <color rgb="FF000000"/>
       </top>
+      <bottom/>
+      <diagonal/>
     </border>
     <border>
       <left style="thin">
@@ -708,9 +751,11 @@
       <right style="thin">
         <color rgb="FF000000"/>
       </right>
+      <top/>
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
+      <diagonal/>
     </border>
     <border>
       <left style="thin">
@@ -725,6 +770,7 @@
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
+      <diagonal/>
     </border>
     <border>
       <left style="thin">
@@ -736,69 +782,46 @@
       <top style="thin">
         <color rgb="FF000000"/>
       </top>
+      <bottom/>
+      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="13">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf borderId="1" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="2" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="3" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="4" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="5" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="6" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="3" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="1" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="7" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="2" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="8" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="9" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle xfId="0" name="Normal" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
-<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheets">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Sheets">
   <a:themeElements>
     <a:clrScheme name="Sheets">
       <a:dk1>
@@ -988,24 +1011,27 @@
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
+  <dimension ref="A1:B9"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="18.0"/>
-    <col customWidth="1" min="2" max="2" width="139.25"/>
+    <col min="1" max="1" width="18" customWidth="1"/>
+    <col min="2" max="2" width="139.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1013,7 +1039,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:2">
       <c r="A2" s="3" t="s">
         <v>2</v>
       </c>
@@ -1021,7 +1047,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3">
+    <row r="3" spans="1:2">
       <c r="A3" s="3" t="s">
         <v>4</v>
       </c>
@@ -1029,7 +1055,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4">
+    <row r="4" spans="1:2">
       <c r="A4" s="3" t="s">
         <v>6</v>
       </c>
@@ -1037,7 +1063,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="5">
+    <row r="5" spans="1:2">
       <c r="A5" s="3" t="s">
         <v>8</v>
       </c>
@@ -1045,7 +1071,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="6">
+    <row r="6" spans="1:2">
       <c r="A6" s="3" t="s">
         <v>10</v>
       </c>
@@ -1053,7 +1079,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="7">
+    <row r="7" spans="1:2">
       <c r="A7" s="3" t="s">
         <v>12</v>
       </c>
@@ -1061,7 +1087,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="8">
+    <row r="8" spans="1:2">
       <c r="A8" s="3" t="s">
         <v>14</v>
       </c>
@@ -1069,7 +1095,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="9">
+    <row r="9" spans="1:2">
       <c r="A9" s="5" t="s">
         <v>16</v>
       </c>
@@ -1078,30 +1104,31 @@
       </c>
     </row>
   </sheetData>
-  <drawing r:id="rId1"/>
+  <pageMargins left="0" right="0" top="0" bottom="0" header="0" footer="0"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
+  <dimension ref="A1:H43"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="8.75"/>
-    <col customWidth="1" min="2" max="2" width="19.75"/>
-    <col customWidth="1" min="3" max="3" width="32.75"/>
-    <col customWidth="1" min="4" max="4" width="18.88"/>
-    <col customWidth="1" min="5" max="5" width="43.63"/>
-    <col customWidth="1" min="6" max="6" width="41.63"/>
-    <col customWidth="1" min="7" max="7" width="8.5"/>
+    <col min="1" max="1" width="8.7109375" customWidth="1"/>
+    <col min="2" max="2" width="19.7109375" customWidth="1"/>
+    <col min="3" max="3" width="32.7109375" customWidth="1"/>
+    <col min="4" max="4" width="18.85546875" customWidth="1"/>
+    <col min="5" max="5" width="43.5703125" customWidth="1"/>
+    <col min="6" max="6" width="41.5703125" customWidth="1"/>
+    <col min="7" max="7" width="8.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:8">
       <c r="A1" s="7" t="s">
         <v>18</v>
       </c>
@@ -1127,7 +1154,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:8">
       <c r="A2" s="8" t="s">
         <v>26</v>
       </c>
@@ -1153,7 +1180,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="3">
+    <row r="3" spans="1:8">
       <c r="A3" s="3" t="s">
         <v>34</v>
       </c>
@@ -1179,7 +1206,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="4">
+    <row r="4" spans="1:8">
       <c r="A4" s="3" t="s">
         <v>40</v>
       </c>
@@ -1205,7 +1232,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="5">
+    <row r="5" spans="1:8">
       <c r="A5" s="3" t="s">
         <v>46</v>
       </c>
@@ -1231,7 +1258,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="6">
+    <row r="6" spans="1:8">
       <c r="A6" s="3" t="s">
         <v>52</v>
       </c>
@@ -1257,7 +1284,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="7">
+    <row r="7" spans="1:8">
       <c r="A7" s="3" t="s">
         <v>57</v>
       </c>
@@ -1283,7 +1310,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="8">
+    <row r="8" spans="1:8">
       <c r="A8" s="3" t="s">
         <v>63</v>
       </c>
@@ -1309,7 +1336,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="9">
+    <row r="9" spans="1:8">
       <c r="A9" s="3" t="s">
         <v>69</v>
       </c>
@@ -1335,7 +1362,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="10">
+    <row r="10" spans="1:8">
       <c r="A10" s="3" t="s">
         <v>75</v>
       </c>
@@ -1361,7 +1388,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="11">
+    <row r="11" spans="1:8">
       <c r="A11" s="3" t="s">
         <v>81</v>
       </c>
@@ -1387,7 +1414,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="12">
+    <row r="12" spans="1:8">
       <c r="A12" s="3" t="s">
         <v>87</v>
       </c>
@@ -1413,7 +1440,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="13">
+    <row r="13" spans="1:8">
       <c r="A13" s="3" t="s">
         <v>93</v>
       </c>
@@ -1439,7 +1466,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="14">
+    <row r="14" spans="1:8">
       <c r="A14" s="3" t="s">
         <v>93</v>
       </c>
@@ -1465,7 +1492,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="15">
+    <row r="15" spans="1:8">
       <c r="A15" s="3" t="s">
         <v>102</v>
       </c>
@@ -1491,7 +1518,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="16">
+    <row r="16" spans="1:8">
       <c r="A16" s="3" t="s">
         <v>108</v>
       </c>
@@ -1517,7 +1544,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="17">
+    <row r="17" spans="1:8">
       <c r="A17" s="3" t="s">
         <v>26</v>
       </c>
@@ -1543,7 +1570,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="18">
+    <row r="18" spans="1:8">
       <c r="A18" s="3" t="s">
         <v>26</v>
       </c>
@@ -1569,7 +1596,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="19">
+    <row r="19" spans="1:8">
       <c r="A19" s="3" t="s">
         <v>34</v>
       </c>
@@ -1595,7 +1622,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="20">
+    <row r="20" spans="1:8">
       <c r="A20" s="3" t="s">
         <v>34</v>
       </c>
@@ -1621,7 +1648,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="21">
+    <row r="21" spans="1:8">
       <c r="A21" s="3" t="s">
         <v>40</v>
       </c>
@@ -1647,7 +1674,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="22">
+    <row r="22" spans="1:8">
       <c r="A22" s="3" t="s">
         <v>40</v>
       </c>
@@ -1673,7 +1700,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="23">
+    <row r="23" spans="1:8">
       <c r="A23" s="3" t="s">
         <v>52</v>
       </c>
@@ -1699,7 +1726,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="24">
+    <row r="24" spans="1:8">
       <c r="A24" s="3" t="s">
         <v>52</v>
       </c>
@@ -1725,7 +1752,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="25">
+    <row r="25" spans="1:8">
       <c r="A25" s="3" t="s">
         <v>57</v>
       </c>
@@ -1751,7 +1778,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="26">
+    <row r="26" spans="1:8">
       <c r="A26" s="3" t="s">
         <v>63</v>
       </c>
@@ -1777,7 +1804,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="27">
+    <row r="27" spans="1:8">
       <c r="A27" s="3" t="s">
         <v>69</v>
       </c>
@@ -1803,7 +1830,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="28">
+    <row r="28" spans="1:8">
       <c r="A28" s="3" t="s">
         <v>75</v>
       </c>
@@ -1829,7 +1856,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="29">
+    <row r="29" spans="1:8">
       <c r="A29" s="3" t="s">
         <v>81</v>
       </c>
@@ -1855,7 +1882,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="30">
+    <row r="30" spans="1:8">
       <c r="A30" s="3" t="s">
         <v>87</v>
       </c>
@@ -1881,7 +1908,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="31">
+    <row r="31" spans="1:8">
       <c r="A31" s="3" t="s">
         <v>93</v>
       </c>
@@ -1907,7 +1934,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="32">
+    <row r="32" spans="1:8">
       <c r="A32" s="3" t="s">
         <v>102</v>
       </c>
@@ -1933,7 +1960,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="33">
+    <row r="33" spans="1:8">
       <c r="A33" s="3" t="s">
         <v>108</v>
       </c>
@@ -1959,7 +1986,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="34">
+    <row r="34" spans="1:8">
       <c r="A34" s="3" t="s">
         <v>46</v>
       </c>
@@ -1985,7 +2012,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="35">
+    <row r="35" spans="1:8">
       <c r="A35" s="3" t="s">
         <v>46</v>
       </c>
@@ -2011,7 +2038,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="36">
+    <row r="36" spans="1:8">
       <c r="A36" s="3" t="s">
         <v>69</v>
       </c>
@@ -2037,7 +2064,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="37">
+    <row r="37" spans="1:8">
       <c r="A37" s="3" t="s">
         <v>69</v>
       </c>
@@ -2063,7 +2090,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="38">
+    <row r="38" spans="1:8">
       <c r="A38" s="3" t="s">
         <v>87</v>
       </c>
@@ -2089,7 +2116,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="39">
+    <row r="39" spans="1:8">
       <c r="A39" s="3" t="s">
         <v>87</v>
       </c>
@@ -2115,7 +2142,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="40">
+    <row r="40" spans="1:8">
       <c r="A40" s="3" t="s">
         <v>81</v>
       </c>
@@ -2141,7 +2168,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="41">
+    <row r="41" spans="1:8">
       <c r="A41" s="3" t="s">
         <v>81</v>
       </c>
@@ -2167,7 +2194,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="42">
+    <row r="42" spans="1:8">
       <c r="A42" s="3" t="s">
         <v>75</v>
       </c>
@@ -2193,7 +2220,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="43">
+    <row r="43" spans="1:8">
       <c r="A43" s="5" t="s">
         <v>75</v>
       </c>
@@ -2220,6 +2247,6 @@
       </c>
     </row>
   </sheetData>
-  <drawing r:id="rId1"/>
+  <pageMargins left="0" right="0" top="0" bottom="0" header="0" footer="0"/>
 </worksheet>
 </file>